--- a/SiteAssets/Deployment_Poll-e2e31316-5182-496c-a0dd-2b1d94c3cf61.xlsx
+++ b/SiteAssets/Deployment_Poll-e2e31316-5182-496c-a0dd-2b1d94c3cf61.xlsx
@@ -816,8 +816,15 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="e45dbced-aa1a-4b99-b9a7-17c1647603e8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57aa06b8-40a5-4000-b0c0-0a316fdf73b5">
+    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1944</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
+      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1944</Url>
+      <Description>ADMIN-1645029823-1944</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -825,226 +832,53 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA9C04D3BC02534394A1512A2B3659FE" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c628c788014303cf47c7b82900940e6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" xmlns:ns3="e45dbced-aa1a-4b99-b9a7-17c1647603e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9d9537e0961fbe981c5326a6adb0efe" ns2:_="" ns3:_="">
-    <xsd:import namespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5"/>
-    <xsd:import namespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="4" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="5" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="6" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="7" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="8" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="9" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:description="" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{de4e050f-aa16-41e3-b1eb-200c8aafaec1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e45dbced-aa1a-4b99-b9a7-17c1647603e8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="17" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,5 +894,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA826E2-9E53-4B2C-A389-5EF725326D1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73E362A4-3AD3-4E89-B2CC-2750E7E1985B}"/>
 </file>